--- a/analysis_specifications/analysis2InputSpecifications.xlsx
+++ b/analysis_specifications/analysis2InputSpecifications.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\github\ohdsi-studies\HowOften\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\github\ohdsi-studies\HowOften\analysis_specifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,23 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="13">
   <si>
     <t>a</t>
   </si>
@@ -132,8 +121,8 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -450,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -462,1466 +451,1680 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
         <v>775</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>757</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
         <v>749</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>757</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
         <v>748</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>757</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
         <v>775</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>759</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
         <v>749</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>759</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
         <v>748</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>759</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
         <v>775</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>760</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
         <v>749</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>760</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
         <v>748</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>760</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>761</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>762</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>761</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>763</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>761</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>764</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>746</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>783</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>746</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>784</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
         <v>750</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>751</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
         <v>750</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>747</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
         <v>750</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>746</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
         <v>751</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>750</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
         <v>751</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>747</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1">
         <v>751</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>746</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1">
         <v>747</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>750</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="2">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
         <v>747</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>751</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
         <v>747</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>746</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1">
         <v>746</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>750</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1">
         <v>746</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>751</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="2">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1">
         <v>746</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>747</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>775</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>1073</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>748</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>1073</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>859</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>1073</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <v>860</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>1073</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="3">
         <v>1013</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>1073</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>858</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>1073</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>749</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>1073</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="3">
         <v>748</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>1073</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>775</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>1074</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <v>748</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>1074</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>859</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>1074</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="A39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="2">
         <v>860</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>1074</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C40" s="3">
         <v>1013</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>1074</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="A41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>858</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>1074</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="A42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>749</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>1074</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="A43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C43" s="3">
         <v>748</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>1074</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44">
+      <c r="B44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
         <v>863</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>862</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45">
+      <c r="A45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
+        <v>862</v>
+      </c>
+      <c r="D45" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
         <v>818</v>
-      </c>
-      <c r="D45" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="4">
-        <v>824</v>
       </c>
       <c r="D46" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>829</v>
+      <c r="A47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="4">
+        <v>824</v>
       </c>
       <c r="D47" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>833</v>
+      <c r="A48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>829</v>
       </c>
       <c r="D48" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>838</v>
+      <c r="A49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>833</v>
       </c>
       <c r="D49" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <v>842</v>
+      <c r="A50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>838</v>
       </c>
       <c r="D50" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>812</v>
+      <c r="A51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>842</v>
       </c>
       <c r="D51" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="A52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C52">
-        <v>821</v>
+      <c r="C52" s="1">
+        <v>812</v>
       </c>
       <c r="D52" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="A53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C53">
-        <v>832</v>
+      <c r="C53" s="1">
+        <v>821</v>
       </c>
       <c r="D53" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="A54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C54">
-        <v>836</v>
+      <c r="C54" s="1">
+        <v>832</v>
       </c>
       <c r="D54" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="A55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C55">
-        <v>839</v>
+      <c r="C55" s="1">
+        <v>836</v>
       </c>
       <c r="D55" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="A56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C56">
-        <v>848</v>
+      <c r="C56" s="1">
+        <v>839</v>
       </c>
       <c r="D56" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57">
-        <v>823</v>
+      <c r="A57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1">
+        <v>848</v>
       </c>
       <c r="D57" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="A58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C58">
-        <v>831</v>
+      <c r="C58" s="1">
+        <v>823</v>
       </c>
       <c r="D58" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="A59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C59">
-        <v>835</v>
+      <c r="C59" s="1">
+        <v>831</v>
       </c>
       <c r="D59" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="A60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C60">
-        <v>840</v>
+      <c r="C60" s="1">
+        <v>835</v>
       </c>
       <c r="D60" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="A61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C61">
-        <v>843</v>
+      <c r="C61" s="1">
+        <v>840</v>
       </c>
       <c r="D61" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="A62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C62">
-        <v>820</v>
+      <c r="C62" s="1">
+        <v>843</v>
       </c>
       <c r="D62" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63">
-        <v>819</v>
+      <c r="A63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="1">
+        <v>820</v>
       </c>
       <c r="D63" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64">
+      <c r="A64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="1">
+        <v>819</v>
+      </c>
+      <c r="D64" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="1">
         <v>822</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D65" s="4">
         <v>811</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65">
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="1">
         <v>834</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D66" s="4">
         <v>810</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66">
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="1">
         <v>841</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D67" s="4">
         <v>854</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67">
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="1">
         <v>830</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D68" s="4">
         <v>855</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="4">
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="4">
         <v>845</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D69" s="4">
         <v>797</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="4">
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="4">
         <v>795</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" s="4">
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="4">
         <v>804</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="4">
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="4">
         <v>805</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" t="s">
-        <v>3</v>
-      </c>
-      <c r="D72" s="4">
+    <row r="73" spans="1:4">
+      <c r="A73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="4">
         <v>850</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="4">
+    <row r="74" spans="1:4">
+      <c r="A74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="4">
         <v>851</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="4">
+    <row r="75" spans="1:4">
+      <c r="A75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="4">
         <v>809</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" t="s">
-        <v>3</v>
-      </c>
-      <c r="D75" s="4">
+    <row r="76" spans="1:4">
+      <c r="A76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="4">
         <v>852</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="4">
+    <row r="77" spans="1:4">
+      <c r="A77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="4">
         <v>806</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B77" t="s">
-        <v>3</v>
-      </c>
-      <c r="D77" s="4">
+    <row r="78" spans="1:4">
+      <c r="A78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="4">
         <v>411</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B78" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" s="4">
+    <row r="79" spans="1:4">
+      <c r="A79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="4">
         <v>463</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" s="4">
+    <row r="80" spans="1:4">
+      <c r="A80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="4">
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" s="4">
+    <row r="81" spans="1:4">
+      <c r="A81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="4">
         <v>507</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B81" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="4">
+    <row r="82" spans="1:4">
+      <c r="A82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="4">
         <v>765</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B82" t="s">
-        <v>3</v>
-      </c>
-      <c r="D82" s="4">
+    <row r="83" spans="1:4">
+      <c r="A83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="4">
         <v>766</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B83" t="s">
-        <v>3</v>
-      </c>
-      <c r="D83" s="4">
+    <row r="84" spans="1:4">
+      <c r="A84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="4">
         <v>934</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B84" t="s">
-        <v>3</v>
-      </c>
-      <c r="D84" s="4">
+    <row r="85" spans="1:4">
+      <c r="A85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="4">
         <v>938</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B85" t="s">
-        <v>3</v>
-      </c>
-      <c r="D85" s="4">
+    <row r="86" spans="1:4">
+      <c r="A86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="4">
         <v>513</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B86" t="s">
-        <v>3</v>
-      </c>
-      <c r="D86" s="4">
+    <row r="87" spans="1:4">
+      <c r="A87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="4">
         <v>405</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B87" t="s">
-        <v>3</v>
-      </c>
-      <c r="D87" s="4">
+    <row r="88" spans="1:4">
+      <c r="A88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="4">
         <v>1081</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" t="s">
-        <v>3</v>
-      </c>
-      <c r="D88" s="4">
+    <row r="89" spans="1:4">
+      <c r="A89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="4">
         <v>362</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B89" t="s">
-        <v>3</v>
-      </c>
-      <c r="D89" s="4">
+    <row r="90" spans="1:4">
+      <c r="A90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="4">
         <v>1088</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B90" t="s">
-        <v>3</v>
-      </c>
-      <c r="D90" s="4">
+    <row r="91" spans="1:4">
+      <c r="A91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="4">
         <v>1090</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B91" t="s">
-        <v>3</v>
-      </c>
-      <c r="D91" s="4">
+    <row r="92" spans="1:4">
+      <c r="A92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="4">
         <v>808</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B92" t="s">
-        <v>3</v>
-      </c>
-      <c r="D92" s="4">
+    <row r="93" spans="1:4">
+      <c r="A93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="4">
         <v>807</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B93" t="s">
-        <v>3</v>
-      </c>
-      <c r="D93" s="4">
+    <row r="94" spans="1:4">
+      <c r="A94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="1"/>
+      <c r="D94" s="4">
         <v>410</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B94" t="s">
-        <v>3</v>
-      </c>
-      <c r="D94" s="4">
+    <row r="95" spans="1:4">
+      <c r="A95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="4">
         <v>861</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B95" t="s">
-        <v>0</v>
-      </c>
-      <c r="C95">
+    <row r="96" spans="1:4">
+      <c r="A96" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="1"/>
+      <c r="D96" s="4">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" s="1">
         <v>865</v>
       </c>
-      <c r="D95" s="4">
+      <c r="D97" s="4">
         <v>965</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" t="s">
-        <v>0</v>
-      </c>
-      <c r="C96">
+    <row r="98" spans="1:4">
+      <c r="A98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" s="1">
         <v>866</v>
       </c>
-      <c r="D96" s="4">
+      <c r="D98" s="4">
         <v>967</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B97" t="s">
-        <v>0</v>
-      </c>
-      <c r="C97">
+    <row r="99" spans="1:4">
+      <c r="A99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" s="1">
         <v>867</v>
       </c>
-      <c r="D97" s="4">
+      <c r="D99" s="4">
         <v>970</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B98" t="s">
-        <v>0</v>
-      </c>
-      <c r="C98">
+    <row r="100" spans="1:4">
+      <c r="A100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" s="1">
         <v>868</v>
       </c>
-      <c r="D98" s="4">
+      <c r="D100" s="4">
         <v>938</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B99" t="s">
-        <v>0</v>
-      </c>
-      <c r="C99">
+    <row r="101" spans="1:4">
+      <c r="A101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" s="1">
         <v>869</v>
       </c>
-      <c r="D99" s="4">
+      <c r="D101" s="4">
         <v>934</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B100" t="s">
-        <v>0</v>
-      </c>
-      <c r="C100">
+    <row r="102" spans="1:4">
+      <c r="A102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" s="1">
         <v>870</v>
       </c>
-      <c r="D100" s="4">
+      <c r="D102" s="4">
         <v>513</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B101" t="s">
-        <v>0</v>
-      </c>
-      <c r="C101">
+    <row r="103" spans="1:4">
+      <c r="A103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" s="1">
         <v>871</v>
       </c>
-      <c r="D101" s="4">
+      <c r="D103" s="4">
         <v>405</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" t="s">
-        <v>0</v>
-      </c>
-      <c r="C102">
+    <row r="104" spans="1:4">
+      <c r="A104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" s="1">
         <v>872</v>
       </c>
-      <c r="D102" s="4">
+      <c r="D104" s="4">
         <v>1081</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B103" t="s">
-        <v>0</v>
-      </c>
-      <c r="C103">
+    <row r="105" spans="1:4">
+      <c r="A105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" s="1">
         <v>873</v>
       </c>
-      <c r="D103" s="4">
+      <c r="D105" s="4">
         <v>1088</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B104" t="s">
-        <v>0</v>
-      </c>
-      <c r="C104">
+    <row r="106" spans="1:4">
+      <c r="A106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" s="1">
         <v>874</v>
       </c>
-      <c r="D104" s="4">
+      <c r="D106" s="4">
         <v>1090</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B105" t="s">
-        <v>0</v>
-      </c>
-      <c r="C105">
+    <row r="107" spans="1:4">
+      <c r="A107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" s="1">
         <v>875</v>
       </c>
-      <c r="D105" s="4">
+      <c r="D107" s="4">
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B106" t="s">
-        <v>0</v>
-      </c>
-      <c r="C106">
+    <row r="108" spans="1:4">
+      <c r="A108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" s="1">
         <v>876</v>
       </c>
-      <c r="D106" s="4">
+      <c r="D108" s="4">
         <v>507</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B107" t="s">
-        <v>0</v>
-      </c>
-      <c r="D107" s="4">
+    <row r="109" spans="1:4">
+      <c r="A109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" s="1"/>
+      <c r="D109" s="4">
         <v>410</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B108" t="s">
-        <v>0</v>
-      </c>
-      <c r="D108" s="4">
+    <row r="110" spans="1:4">
+      <c r="A110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="4">
         <v>411</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B109" t="s">
-        <v>0</v>
-      </c>
-      <c r="D109" s="4">
+    <row r="111" spans="1:4">
+      <c r="A111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111" s="1"/>
+      <c r="D111" s="4">
         <v>463</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B110" t="s">
-        <v>0</v>
-      </c>
-      <c r="D110" s="4">
+    <row r="112" spans="1:4">
+      <c r="A112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="4">
         <v>362</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="2"/>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="2"/>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="2"/>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="2"/>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" s="4">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="D114" s="4">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" s="1">
+        <v>1106</v>
+      </c>
+      <c r="D115" s="4">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" s="1">
+        <v>1103</v>
+      </c>
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1102</v>
+      </c>
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1101</v>
+      </c>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" s="1">
+        <v>1100</v>
+      </c>
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1099</v>
+      </c>
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" s="1">
+        <v>1098</v>
+      </c>
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" s="1">
+        <v>1097</v>
+      </c>
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" s="1">
+        <v>1096</v>
+      </c>
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1095</v>
+      </c>
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1094</v>
+      </c>
+      <c r="D125" s="1"/>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1093</v>
+      </c>
+      <c r="D126" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D43">

--- a/analysis_specifications/analysis2InputSpecifications.xlsx
+++ b/analysis_specifications/analysis2InputSpecifications.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="14">
   <si>
     <t>a</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>from</t>
+  </si>
+  <si>
+    <t>gowtham</t>
   </si>
 </sst>
 </file>
@@ -119,12 +122,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D126"/>
+  <dimension ref="A1:E194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127:C181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2126,6 +2134,931 @@
       </c>
       <c r="D126" s="1"/>
     </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>13</v>
+      </c>
+      <c r="B127" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" s="9">
+        <v>723</v>
+      </c>
+      <c r="D127" s="7">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" s="9">
+        <v>716</v>
+      </c>
+      <c r="D128" s="7">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129" s="9">
+        <v>1081</v>
+      </c>
+      <c r="D129" s="7">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130" s="9">
+        <v>405</v>
+      </c>
+      <c r="D130" s="7">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" s="9">
+        <v>251</v>
+      </c>
+      <c r="D131" s="7">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" s="9">
+        <v>735</v>
+      </c>
+      <c r="D132" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133" s="9">
+        <v>729</v>
+      </c>
+      <c r="D133" s="7">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C134" s="9">
+        <v>862</v>
+      </c>
+      <c r="D134" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C135" s="9">
+        <v>1013</v>
+      </c>
+      <c r="D135" s="7">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C136" s="9">
+        <v>334</v>
+      </c>
+      <c r="D136" s="7">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C137" s="9">
+        <v>989</v>
+      </c>
+      <c r="D137" s="7">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C138" s="9">
+        <v>788</v>
+      </c>
+      <c r="D138" s="7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139" s="9">
+        <v>923</v>
+      </c>
+      <c r="D139" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C140" s="9">
+        <v>1027</v>
+      </c>
+      <c r="D140" s="7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C141" s="9">
+        <v>710</v>
+      </c>
+      <c r="D141" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142" s="9">
+        <v>790</v>
+      </c>
+      <c r="D142" s="7">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143" s="9">
+        <v>1031</v>
+      </c>
+      <c r="D143" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C144" s="9">
+        <v>859</v>
+      </c>
+      <c r="D144" s="7">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C145" s="9">
+        <v>1007</v>
+      </c>
+      <c r="D145" s="7">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C146" s="9">
+        <v>770</v>
+      </c>
+      <c r="D146" s="7">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C147" s="9">
+        <v>667</v>
+      </c>
+      <c r="D147" s="7">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C148" s="9">
+        <v>934</v>
+      </c>
+      <c r="D148" s="7">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C149" s="9">
+        <v>1087</v>
+      </c>
+      <c r="D149" s="7">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C150" s="9">
+        <v>715</v>
+      </c>
+      <c r="D150" s="7">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C151" s="9">
+        <v>1083</v>
+      </c>
+      <c r="D151" s="7">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C152" s="9">
+        <v>745</v>
+      </c>
+      <c r="D152" s="7">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C153" s="9">
+        <v>765</v>
+      </c>
+      <c r="D153" s="7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C154" s="9">
+        <v>787</v>
+      </c>
+      <c r="D154" s="7">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C155" s="9">
+        <v>1020</v>
+      </c>
+      <c r="D155" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C156" s="9">
+        <v>1029</v>
+      </c>
+      <c r="D156" s="7">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C157" s="9">
+        <v>1011</v>
+      </c>
+      <c r="D157" s="7">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" s="9">
+        <v>791</v>
+      </c>
+      <c r="D158" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C159" s="9">
+        <v>1026</v>
+      </c>
+      <c r="D159" s="7">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C160" s="9">
+        <v>786</v>
+      </c>
+      <c r="D160" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161" s="9">
+        <v>919</v>
+      </c>
+      <c r="D161" s="7">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C162" s="9">
+        <v>749</v>
+      </c>
+      <c r="D162" s="7">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C163" s="9">
+        <v>798</v>
+      </c>
+      <c r="D163" s="7">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C164" s="9">
+        <v>1030</v>
+      </c>
+      <c r="D164" s="7">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C165" s="9">
+        <v>748</v>
+      </c>
+      <c r="D165" s="7">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C166" s="9">
+        <v>744</v>
+      </c>
+      <c r="D166" s="7">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C167" s="9">
+        <v>1003</v>
+      </c>
+      <c r="D167" s="7">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C168" s="9">
+        <v>43</v>
+      </c>
+      <c r="D168" s="7">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C169" s="9">
+        <v>858</v>
+      </c>
+      <c r="D169" s="7">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C170" s="9">
+        <v>766</v>
+      </c>
+      <c r="D170" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C171" s="9">
+        <v>767</v>
+      </c>
+      <c r="D171" s="7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C172" s="9">
+        <v>769</v>
+      </c>
+      <c r="D172" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C173" s="9">
+        <v>892</v>
+      </c>
+      <c r="D173" s="7">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C174" s="9">
+        <v>119</v>
+      </c>
+      <c r="D174" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C175" s="9">
+        <v>920</v>
+      </c>
+      <c r="D175" s="7">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C176" s="9">
+        <v>956</v>
+      </c>
+      <c r="D176" s="7">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C177" s="9">
+        <v>1009</v>
+      </c>
+      <c r="D177" s="7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C178" s="9">
+        <v>30</v>
+      </c>
+      <c r="D178" s="7">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C179" s="9">
+        <v>957</v>
+      </c>
+      <c r="D179" s="7">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C180" s="9">
+        <v>860</v>
+      </c>
+      <c r="D180" s="7">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C181" s="9">
+        <v>1028</v>
+      </c>
+      <c r="D181" s="7">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C182" s="5"/>
+      <c r="D182" s="7">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C183" s="5"/>
+      <c r="D183" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C184" s="5"/>
+      <c r="D184" s="7">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C185" s="5"/>
+      <c r="D185" s="7">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C186" s="5"/>
+      <c r="D186" s="7">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C187" s="5"/>
+      <c r="D187" s="7">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D188" s="7">
+        <v>1006</v>
+      </c>
+      <c r="E188" s="6"/>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D189" s="8">
+        <v>24</v>
+      </c>
+      <c r="E189" s="6"/>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D190" s="8">
+        <v>257</v>
+      </c>
+      <c r="E190" s="6"/>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D191" s="8">
+        <v>325</v>
+      </c>
+      <c r="E191" s="6"/>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D192" s="8">
+        <v>346</v>
+      </c>
+      <c r="E192" s="6"/>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D193" s="8">
+        <v>347</v>
+      </c>
+      <c r="E193" s="6"/>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D194" s="8">
+        <v>707</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D43">
     <sortState ref="A2:H43">
